--- a/webshop_estimation.xlsx
+++ b/webshop_estimation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teker\Documents\GitHub\average_js_webshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teker\Documents\GitHub\average-js-webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803A7A4-F8E2-4025-9AE5-7F8A8B001277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923FE53-5D12-4FB9-A0B1-A94ADA035965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{1F708AD7-E153-49E2-894C-2EA892448749}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Confirmation email upon successful registration (optional, if time permits).</t>
   </si>
   <si>
-    <t>Google + Facebook Authentication</t>
-  </si>
-  <si>
     <t>Two Factor Authentication with Email</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Name, list of billing &amp; shipping addresses, nickname, photo upload</t>
-  </si>
-  <si>
-    <t>Purchase history</t>
   </si>
   <si>
     <t>Change password option.</t>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>Reduced verzió esztimált befejezése 2024. január 21-én.</t>
+  </si>
+  <si>
+    <t>Google Authentication</t>
+  </si>
+  <si>
+    <t>Facebook Authentication</t>
   </si>
 </sst>
 </file>
@@ -912,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78354448-0B41-46C3-A011-14CF679C18E9}">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -990,10 +990,10 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1014,10 +1014,10 @@
     </row>
     <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1025,11 +1025,11 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1038,44 +1038,44 @@
     </row>
     <row r="21" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="12">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
-        <f>SUM(C5:C21)</f>
-        <v>54</v>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>73</v>
+    <row r="25" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7">
+        <f>SUM(C5:C23)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-    </row>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1084,44 +1084,44 @@
     </row>
     <row r="31" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="7">
-        <f>SUM(C27:C31)</f>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="7">
+        <f>SUM(C29:C33)</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="3">
-        <v>8</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-    </row>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C39" s="3">
         <v>8</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1130,44 +1130,44 @@
     </row>
     <row r="41" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="7">
-        <f>SUM(C37:C41)</f>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="7">
+        <f>SUM(C39:C43)</f>
         <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C47" s="3">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-      <c r="D48" s="6"/>
-    </row>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1176,10 +1176,10 @@
     </row>
     <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1191,27 +1191,27 @@
         <v>2</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7">
-        <f>SUM(C47:C53)</f>
-        <v>18</v>
+        <f>SUM(C49:C53)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,7 @@
     <row r="76" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="77" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
     <row r="98" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
     <row r="118" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="119" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1549,13 +1549,13 @@
     <row r="128" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -1576,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="147" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1674,13 +1674,13 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1726,7 @@
     <row r="166" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="167" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
     <row r="172" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="173" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1785,7 @@
     <row r="180" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="181" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1831,7 @@
     <row r="190" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="191" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1865,13 +1865,13 @@
     <row r="198" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1918,7 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="211" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1942,13 +1942,13 @@
     <row r="216" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
     <row r="226" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="227" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
     <row r="238" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="239" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
     <row r="248" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="249" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -2128,15 +2128,15 @@
     <row r="257" spans="2:5" x14ac:dyDescent="0.25"/>
     <row r="258" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C258" s="11">
-        <f>SUM(C255,C247,C237,C225,C215,C209,C197,C189,C179,C171,C165,C153,C145,C127,C117,C97,C75,C65,C55,C43,C33,C23)</f>
-        <v>386</v>
+        <f>SUM(C255,C247,C237,C225,C215,C209,C197,C189,C179,C171,C165,C153,C145,C127,C117,C97,C75,C65,C55,C45,C35,C25)</f>
+        <v>384</v>
       </c>
       <c r="D258" s="15">
         <f>C258*3.14</f>
-        <v>1212.04</v>
+        <v>1205.76</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.25">
@@ -2145,30 +2145,30 @@
         <v>488</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D260" s="13">
         <f>D258/D259*3</f>
-        <v>7.4510655737704905</v>
+        <v>7.4124590163934432</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25"/>
     <row r="262" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C262" s="11">
-        <f>C258-C195-C143-C137-C95-C91-C89-C87-C21-C19</f>
-        <v>285</v>
+        <f>C258-C195-C143-C137-C95-C91-C89-C87-C23-C21</f>
+        <v>283</v>
       </c>
       <c r="D262" s="15">
         <f>C262*3.14</f>
-        <v>894.90000000000009</v>
+        <v>888.62</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.25">
@@ -2177,22 +2177,22 @@
         <v>754</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D264" s="13">
         <f>D262/D263*3</f>
-        <v>3.5606100795755973</v>
+        <v>3.5356233421750662</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.25"/>
     <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D266" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.25"/>
@@ -2200,6 +2200,8 @@
     <row r="269" spans="2:5" x14ac:dyDescent="0.25"/>
     <row r="270" spans="2:5" x14ac:dyDescent="0.25"/>
     <row r="271" spans="2:5" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
